--- a/vgp_database/Washakie_Basin_sediments.xlsx
+++ b/vgp_database/Washakie_Basin_sediments.xlsx
@@ -105,10 +105,10 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R2.1</t>
+    <t>R2a</t>
   </si>
   <si>
-    <t>R2.2</t>
+    <t>R2b</t>
   </si>
   <si>
     <t>R3</t>
@@ -117,10 +117,10 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R5.1</t>
+    <t>R5a</t>
   </si>
   <si>
-    <t>R5.2</t>
+    <t>R5b</t>
   </si>
   <si>
     <t>R6</t>
@@ -199,7 +199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -228,12 +228,6 @@
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -286,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -312,16 +306,13 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -342,20 +333,17 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -749,7 +737,7 @@
       <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="8" t="s">
@@ -767,13 +755,13 @@
       <c r="N4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="9" t="s">
         <v>19</v>
       </c>
       <c r="R4" s="7" t="s">
@@ -833,10 +821,10 @@
       <c r="AJ4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AK4" s="11" t="s">
+      <c r="AK4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AL4" s="12" t="s">
+      <c r="AL4" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AM4" s="3"/>
@@ -846,76 +834,76 @@
       <c r="AQ4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>1.0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>41.3</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>-108.0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>42.0</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>344.2</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>61.5</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>10.7</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>7.0</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="15">
+      <c r="J5" s="15"/>
+      <c r="K5" s="14">
         <v>78.2</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>174.4</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17">
+      <c r="M5" s="15"/>
+      <c r="N5" s="16">
         <v>9.47485092231007</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="17">
         <v>8.32</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="17">
         <v>10.79</v>
       </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="19"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="18"/>
       <c r="AI5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="14" t="s">
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AL5" s="22"/>
+      <c r="AL5" s="21"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
@@ -1039,10 +1027,10 @@
       <c r="H8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -1123,17 +1111,17 @@
       <c r="AJ8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AK8" s="11" t="s">
+      <c r="AK8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AL8" s="23" t="s">
+      <c r="AL8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AM8" s="24"/>
-      <c r="AN8" s="24"/>
-      <c r="AO8" s="24"/>
-      <c r="AP8" s="24"/>
-      <c r="AQ8" s="24"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
     </row>
     <row r="9">
       <c r="A9" s="4"/>
